--- a/Basefile Code/Uprating Data/Income Uprating Data.xlsx
+++ b/Basefile Code/Uprating Data/Income Uprating Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="300" windowWidth="28830" windowHeight="9060" tabRatio="767"/>
+    <workbookView xWindow="-15" yWindow="6450" windowWidth="28830" windowHeight="6390" tabRatio="767"/>
   </bookViews>
   <sheets>
     <sheet name="Quarterly" sheetId="16" r:id="rId1"/>
@@ -35,7 +35,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="28">
+  <numFmts count="27">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00\ ;[Red]\-&quot;$&quot;#,##0.00\ ;&quot;- - &quot;"/>
@@ -63,7 +63,6 @@
     <numFmt numFmtId="186" formatCode="&quot;$&quot;#,##0.000;[Red]\-&quot;$&quot;#,##0.000;[Blue]&quot;$&quot;#,##0.000;@"/>
     <numFmt numFmtId="187" formatCode="0;0;0;\ @\ "/>
     <numFmt numFmtId="188" formatCode="0.0"/>
-    <numFmt numFmtId="189" formatCode="0.00;\-0.00;0.00;@"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -528,7 +527,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -543,9 +542,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1188,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1220,15 +1216,15 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>39355</v>
-      </c>
-      <c r="B2" s="4">
+        <v>39326</v>
+      </c>
+      <c r="B2" s="3">
         <v>88.3</v>
       </c>
       <c r="C2" s="4">
         <v>875.8</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>86.7</v>
       </c>
       <c r="E2" s="4">
@@ -1237,15 +1233,15 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B3" s="4">
+        <v>39417</v>
+      </c>
+      <c r="B3" s="3">
         <v>89.1</v>
       </c>
       <c r="C3" s="4">
         <v>875.8</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>86.6</v>
       </c>
       <c r="E3" s="4">
@@ -1254,15 +1250,15 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>39538</v>
-      </c>
-      <c r="B4" s="4">
+        <v>39508</v>
+      </c>
+      <c r="B4" s="3">
         <v>90.3</v>
       </c>
       <c r="C4" s="4">
         <v>891.2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>86.6</v>
       </c>
       <c r="E4" s="4">
@@ -1271,15 +1267,15 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>39629</v>
-      </c>
-      <c r="B5" s="4">
+        <v>39600</v>
+      </c>
+      <c r="B5" s="3">
         <v>91.6</v>
       </c>
       <c r="C5" s="4">
         <v>888.5</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>87.7</v>
       </c>
       <c r="E5" s="4">
@@ -1288,916 +1284,1102 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>39721</v>
-      </c>
-      <c r="B6" s="4">
+        <v>39692</v>
+      </c>
+      <c r="B6" s="3">
         <v>92.7</v>
       </c>
       <c r="C6" s="4">
         <v>901.7</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
+        <f>B2</f>
         <v>88.3</v>
       </c>
       <c r="E6" s="4">
+        <f>C2</f>
         <v>875.8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B7" s="4">
+        <v>39783</v>
+      </c>
+      <c r="B7" s="3">
         <v>92.4</v>
       </c>
       <c r="C7" s="4">
         <v>909.5</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
+        <f t="shared" ref="D7:D61" si="0">B3</f>
         <v>89.1</v>
       </c>
       <c r="E7" s="4">
+        <f t="shared" ref="E7:E61" si="1">C3</f>
         <v>875.8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>39903</v>
-      </c>
-      <c r="B8" s="4">
+        <v>39873</v>
+      </c>
+      <c r="B8" s="3">
         <v>92.5</v>
       </c>
       <c r="C8" s="4">
         <v>921.5</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
+        <f t="shared" si="0"/>
         <v>90.3</v>
       </c>
       <c r="E8" s="4">
+        <f>C4</f>
         <v>891.2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>39994</v>
-      </c>
-      <c r="B9" s="4">
+        <v>39965</v>
+      </c>
+      <c r="B9" s="3">
         <v>92.9</v>
       </c>
       <c r="C9" s="4">
         <v>918.8</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
+        <f t="shared" si="0"/>
         <v>91.6</v>
       </c>
       <c r="E9" s="4">
+        <f t="shared" si="1"/>
         <v>888.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>40086</v>
-      </c>
-      <c r="B10" s="4">
+        <v>40057</v>
+      </c>
+      <c r="B10" s="3">
         <v>93.8</v>
       </c>
       <c r="C10" s="4">
         <v>940</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
         <v>92.7</v>
       </c>
       <c r="E10" s="4">
+        <f t="shared" si="1"/>
         <v>901.7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B11" s="4">
+        <v>40148</v>
+      </c>
+      <c r="B11" s="3">
         <v>94.3</v>
       </c>
       <c r="C11" s="4">
         <v>955</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
+        <f t="shared" si="0"/>
         <v>92.4</v>
       </c>
       <c r="E11" s="4">
+        <f>C7</f>
         <v>909.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>40268</v>
-      </c>
-      <c r="B12" s="4">
+        <v>40238</v>
+      </c>
+      <c r="B12" s="3">
         <v>95.2</v>
       </c>
       <c r="C12" s="4">
         <v>973.8</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
+        <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
       <c r="E12" s="4">
+        <f t="shared" si="1"/>
         <v>921.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>40359</v>
-      </c>
-      <c r="B13" s="4">
+        <v>40330</v>
+      </c>
+      <c r="B13" s="3">
         <v>95.8</v>
       </c>
       <c r="C13" s="4">
         <v>977.1</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
+        <f t="shared" si="0"/>
         <v>92.9</v>
       </c>
       <c r="E13" s="4">
+        <f t="shared" si="1"/>
         <v>918.8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>40451</v>
-      </c>
-      <c r="B14" s="4">
+        <v>40422</v>
+      </c>
+      <c r="B14" s="3">
         <v>96.5</v>
       </c>
       <c r="C14" s="4">
         <v>978.4</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
+        <f t="shared" si="0"/>
         <v>93.8</v>
       </c>
       <c r="E14" s="4">
+        <f t="shared" si="1"/>
         <v>940</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>40543</v>
-      </c>
-      <c r="B15" s="4">
+        <v>40513</v>
+      </c>
+      <c r="B15" s="3">
         <v>96.9</v>
       </c>
       <c r="C15" s="4">
         <v>996.6</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
+        <f t="shared" si="0"/>
         <v>94.3</v>
       </c>
       <c r="E15" s="4">
+        <f t="shared" si="1"/>
         <v>955</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>40633</v>
-      </c>
-      <c r="B16" s="4">
+        <v>40603</v>
+      </c>
+      <c r="B16" s="3">
         <v>98.3</v>
       </c>
       <c r="C16" s="4">
         <v>1011.8</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
         <v>95.2</v>
       </c>
       <c r="E16" s="4">
+        <f t="shared" si="1"/>
         <v>973.8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>40724</v>
-      </c>
-      <c r="B17" s="4">
+        <v>40695</v>
+      </c>
+      <c r="B17" s="3">
         <v>99.2</v>
       </c>
       <c r="C17" s="4">
         <v>1015.2</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="5">
+        <f t="shared" si="0"/>
         <v>95.8</v>
       </c>
       <c r="E17" s="4">
+        <f t="shared" si="1"/>
         <v>977.1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>40816</v>
-      </c>
-      <c r="B18" s="4">
+        <v>40787</v>
+      </c>
+      <c r="B18" s="3">
         <v>99.8</v>
       </c>
       <c r="C18" s="4">
         <v>1024.2</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
+        <f t="shared" si="0"/>
         <v>96.5</v>
       </c>
       <c r="E18" s="4">
+        <f t="shared" si="1"/>
         <v>978.4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>40908</v>
-      </c>
-      <c r="B19" s="4">
+        <v>40878</v>
+      </c>
+      <c r="B19" s="3">
         <v>99.8</v>
       </c>
       <c r="C19" s="4">
         <v>1033.7</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
         <v>96.9</v>
       </c>
       <c r="E19" s="4">
+        <f t="shared" si="1"/>
         <v>996.6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>40999</v>
-      </c>
-      <c r="B20" s="4">
+        <v>40969</v>
+      </c>
+      <c r="B20" s="3">
         <v>99.9</v>
       </c>
       <c r="C20" s="4">
         <v>1056.2</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
+        <f t="shared" si="0"/>
         <v>98.3</v>
       </c>
       <c r="E20" s="4">
+        <f t="shared" si="1"/>
         <v>1011.8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>41090</v>
-      </c>
-      <c r="B21" s="4">
+        <v>41061</v>
+      </c>
+      <c r="B21" s="3">
         <v>100.4</v>
       </c>
       <c r="C21" s="4">
         <v>1053.2</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
+        <f t="shared" si="0"/>
         <v>99.2</v>
       </c>
       <c r="E21" s="4">
+        <f t="shared" si="1"/>
         <v>1015.2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>41182</v>
-      </c>
-      <c r="B22" s="4">
+        <v>41153</v>
+      </c>
+      <c r="B22" s="3">
         <v>101.8</v>
       </c>
       <c r="C22" s="4">
         <v>1067.25</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
+        <f t="shared" si="0"/>
         <v>99.8</v>
       </c>
       <c r="E22" s="4">
+        <f t="shared" si="1"/>
         <v>1024.2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>41274</v>
-      </c>
-      <c r="B23" s="4">
+        <v>41244</v>
+      </c>
+      <c r="B23" s="3">
         <v>102</v>
       </c>
       <c r="C23" s="4">
         <v>1081.3</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="5">
+        <f t="shared" si="0"/>
         <v>99.8</v>
       </c>
       <c r="E23" s="4">
+        <f t="shared" si="1"/>
         <v>1033.7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>41364</v>
-      </c>
-      <c r="B24" s="4">
+        <v>41334</v>
+      </c>
+      <c r="B24" s="3">
         <v>102.4</v>
       </c>
       <c r="C24" s="4">
         <v>1093.1500000000001</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
+        <f t="shared" si="0"/>
         <v>99.9</v>
       </c>
       <c r="E24" s="4">
+        <f t="shared" si="1"/>
         <v>1056.2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41455</v>
-      </c>
-      <c r="B25" s="4">
+        <v>41426</v>
+      </c>
+      <c r="B25" s="3">
         <v>102.8</v>
       </c>
       <c r="C25" s="4">
         <v>1105</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="5">
+        <f t="shared" si="0"/>
         <v>100.4</v>
       </c>
       <c r="E25" s="4">
+        <f t="shared" si="1"/>
         <v>1053.2</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>41547</v>
-      </c>
-      <c r="B26" s="4">
+        <v>41518</v>
+      </c>
+      <c r="B26" s="3">
         <v>104</v>
       </c>
       <c r="C26" s="4">
         <v>1109.5999999999999</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="5">
+        <f t="shared" si="0"/>
         <v>101.8</v>
       </c>
       <c r="E26" s="4">
+        <f t="shared" si="1"/>
         <v>1067.25</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>41639</v>
-      </c>
-      <c r="B27" s="4">
+        <v>41609</v>
+      </c>
+      <c r="B27" s="3">
         <v>104.8</v>
       </c>
       <c r="C27" s="4">
         <v>1114.2</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="5">
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="E27" s="4">
+        <f t="shared" si="1"/>
         <v>1081.3</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>41729</v>
-      </c>
-      <c r="B28" s="4">
+        <v>41699</v>
+      </c>
+      <c r="B28" s="3">
         <v>105.4</v>
       </c>
       <c r="C28" s="4">
         <v>1118.5999999999999</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="5">
+        <f t="shared" si="0"/>
         <v>102.4</v>
       </c>
       <c r="E28" s="4">
+        <f t="shared" si="1"/>
         <v>1093.1500000000001</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>41820</v>
-      </c>
-      <c r="B29" s="4">
+        <v>41791</v>
+      </c>
+      <c r="B29" s="3">
         <v>105.9</v>
       </c>
       <c r="C29" s="4">
         <v>1123</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="5">
+        <f t="shared" si="0"/>
         <v>102.8</v>
       </c>
       <c r="E29" s="4">
+        <f t="shared" si="1"/>
         <v>1105</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>41912</v>
-      </c>
-      <c r="B30" s="4">
+        <v>41883</v>
+      </c>
+      <c r="B30" s="3">
         <v>106.4</v>
       </c>
       <c r="C30" s="4">
         <v>1125.8499999999999</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="5">
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="E30" s="4">
+        <f t="shared" si="1"/>
         <v>1109.5999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>42004</v>
-      </c>
-      <c r="B31" s="4">
+        <v>41974</v>
+      </c>
+      <c r="B31" s="3">
         <v>106.6</v>
       </c>
       <c r="C31" s="4">
         <v>1128.7</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="5">
+        <f t="shared" si="0"/>
         <v>104.8</v>
       </c>
       <c r="E31" s="4">
+        <f t="shared" si="1"/>
         <v>1114.2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>42094</v>
-      </c>
-      <c r="B32" s="4">
+        <v>42064</v>
+      </c>
+      <c r="B32" s="3">
         <v>106.8</v>
       </c>
       <c r="C32" s="4">
         <v>1132.8000000000002</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="5">
+        <f t="shared" si="0"/>
         <v>105.4</v>
       </c>
       <c r="E32" s="4">
+        <f t="shared" si="1"/>
         <v>1118.5999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>42185</v>
-      </c>
-      <c r="B33" s="4">
+        <v>42156</v>
+      </c>
+      <c r="B33" s="3">
         <v>107.5</v>
       </c>
       <c r="C33" s="4">
         <v>1136.9000000000001</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="5">
+        <f t="shared" si="0"/>
         <v>105.9</v>
       </c>
       <c r="E33" s="4">
+        <f t="shared" si="1"/>
         <v>1123</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>42277</v>
-      </c>
-      <c r="B34" s="4">
+        <v>42248</v>
+      </c>
+      <c r="B34" s="3">
         <v>108</v>
       </c>
       <c r="C34" s="4">
         <v>1141.3000000000002</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="5">
+        <f t="shared" si="0"/>
         <v>106.4</v>
       </c>
       <c r="E34" s="4">
+        <f t="shared" si="1"/>
         <v>1125.8499999999999</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>42369</v>
-      </c>
-      <c r="B35" s="4">
+        <v>42339</v>
+      </c>
+      <c r="B35" s="3">
         <v>108.4</v>
       </c>
       <c r="C35" s="4">
         <v>1145.7</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="5">
+        <f t="shared" si="0"/>
         <v>106.6</v>
       </c>
       <c r="E35" s="4">
+        <f t="shared" si="1"/>
         <v>1128.7</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>42460</v>
-      </c>
-      <c r="B36" s="4">
+        <v>42430</v>
+      </c>
+      <c r="B36" s="3">
         <v>108.2</v>
       </c>
       <c r="C36" s="4">
         <v>1153.3000000000002</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="5">
+        <f t="shared" si="0"/>
         <v>106.8</v>
       </c>
       <c r="E36" s="4">
+        <f t="shared" si="1"/>
         <v>1132.8000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>42551</v>
-      </c>
-      <c r="B37" s="4">
+        <v>42522</v>
+      </c>
+      <c r="B37" s="3">
         <v>108.6</v>
       </c>
       <c r="C37" s="4">
         <v>1160.9000000000001</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="5">
+        <f t="shared" si="0"/>
         <v>107.5</v>
       </c>
       <c r="E37" s="4">
+        <f t="shared" si="1"/>
         <v>1136.9000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>42643</v>
-      </c>
-      <c r="B38" s="4">
+        <v>42614</v>
+      </c>
+      <c r="B38" s="3">
         <v>109.4</v>
       </c>
       <c r="C38" s="4">
         <v>1162.2</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="5">
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="E38" s="4">
+        <f t="shared" si="1"/>
         <v>1141.3000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42735</v>
-      </c>
-      <c r="B39" s="4">
+        <v>42705</v>
+      </c>
+      <c r="B39" s="3">
         <v>110</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="4">
         <v>1163.5</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="5">
+        <f t="shared" si="0"/>
         <v>108.4</v>
       </c>
       <c r="E39" s="4">
+        <f t="shared" si="1"/>
         <v>1145.7</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>42825</v>
-      </c>
-      <c r="B40" s="4">
+        <v>42795</v>
+      </c>
+      <c r="B40" s="3">
         <v>110.5</v>
       </c>
       <c r="C40" s="4">
         <v>1171.25</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="5">
+        <f t="shared" si="0"/>
         <v>108.2</v>
       </c>
       <c r="E40" s="4">
+        <f t="shared" si="1"/>
         <v>1153.3000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>42916</v>
-      </c>
-      <c r="B41" s="4">
+        <v>42887</v>
+      </c>
+      <c r="B41" s="3">
         <v>110.7</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="4">
         <v>1179</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="5">
+        <f t="shared" si="0"/>
         <v>108.6</v>
       </c>
       <c r="E41" s="4">
+        <f t="shared" si="1"/>
         <v>1160.9000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43008</v>
-      </c>
-      <c r="B42" s="4">
-        <v>111.2</v>
-      </c>
-      <c r="C42" s="5">
-        <v>1186.3</v>
-      </c>
-      <c r="D42" s="4">
+        <v>42979</v>
+      </c>
+      <c r="B42" s="3">
+        <v>111.4</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1185.25</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="0"/>
         <v>109.4</v>
       </c>
       <c r="E42" s="4">
+        <f t="shared" si="1"/>
         <v>1162.2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>43100</v>
-      </c>
-      <c r="B43" s="4">
-        <v>111.8</v>
-      </c>
-      <c r="C43" s="5">
-        <v>1193.5999999999999</v>
-      </c>
-      <c r="D43" s="4">
+        <v>43070</v>
+      </c>
+      <c r="B43" s="3">
+        <v>112.1</v>
+      </c>
+      <c r="C43" s="4">
+        <v>1191.5</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="E43" s="4">
+        <f t="shared" si="1"/>
         <v>1163.5</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43190</v>
-      </c>
-      <c r="B44" s="4">
-        <v>112.4</v>
-      </c>
-      <c r="C44" s="5">
-        <v>1201</v>
-      </c>
-      <c r="D44" s="4">
+        <v>43160</v>
+      </c>
+      <c r="B44" s="3">
+        <v>112.6</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1199.45</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="0"/>
         <v>110.5</v>
       </c>
       <c r="E44" s="4">
+        <f t="shared" si="1"/>
         <v>1171.25</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43281</v>
-      </c>
-      <c r="B45" s="4">
-        <v>112.9</v>
-      </c>
-      <c r="C45" s="5">
-        <v>1208.5</v>
-      </c>
-      <c r="D45" s="4">
+        <v>43252</v>
+      </c>
+      <c r="B45" s="3">
+        <v>113</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1207.4000000000001</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="0"/>
         <v>110.7</v>
       </c>
       <c r="E45" s="4">
+        <f t="shared" si="1"/>
         <v>1179</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>43373</v>
-      </c>
-      <c r="B46" s="4">
-        <v>113.5</v>
-      </c>
-      <c r="C46" s="5">
-        <v>1217.0999999999999</v>
-      </c>
-      <c r="D46" s="4">
-        <v>111.2</v>
+        <v>43344</v>
+      </c>
+      <c r="B46" s="3">
+        <v>113.60000000000001</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1215.4000000000001</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="0"/>
+        <v>111.4</v>
       </c>
       <c r="E46" s="4">
-        <v>1186.3</v>
+        <f t="shared" si="1"/>
+        <v>1185.25</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>43465</v>
-      </c>
-      <c r="B47" s="4">
-        <v>114.1</v>
-      </c>
-      <c r="C47" s="5">
-        <v>1225.9000000000001</v>
-      </c>
-      <c r="D47" s="4">
-        <v>111.8</v>
+        <v>43435</v>
+      </c>
+      <c r="B47" s="3">
+        <v>114.30000000000001</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1223.5</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="0"/>
+        <v>112.1</v>
       </c>
       <c r="E47" s="4">
-        <v>1193.5999999999999</v>
+        <f t="shared" si="1"/>
+        <v>1191.5</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>43555</v>
-      </c>
-      <c r="B48" s="4">
-        <v>114.8</v>
-      </c>
-      <c r="C48" s="5">
-        <v>1234.7</v>
-      </c>
-      <c r="D48" s="4">
-        <v>112.4</v>
+        <v>43525</v>
+      </c>
+      <c r="B48" s="3">
+        <v>114.9</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1231.6000000000001</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="0"/>
+        <v>112.6</v>
       </c>
       <c r="E48" s="4">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1199.45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>43646</v>
-      </c>
-      <c r="B49" s="4">
-        <v>115.4</v>
-      </c>
-      <c r="C49" s="5">
-        <v>1243.5</v>
-      </c>
-      <c r="D49" s="4">
-        <v>112.9</v>
+        <v>43617</v>
+      </c>
+      <c r="B49" s="3">
+        <v>115.60000000000001</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1239.8000000000002</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="0"/>
+        <v>113</v>
       </c>
       <c r="E49" s="4">
-        <v>1208.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1207.4000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>43738</v>
-      </c>
-      <c r="B50" s="4">
-        <v>116.1</v>
-      </c>
-      <c r="C50" s="5">
-        <v>1254.3</v>
-      </c>
-      <c r="D50" s="4">
-        <v>113.5</v>
+        <v>43709</v>
+      </c>
+      <c r="B50" s="3">
+        <v>116.30000000000001</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1249.5</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="0"/>
+        <v>113.60000000000001</v>
       </c>
       <c r="E50" s="4">
-        <v>1217.0999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1215.4000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>43830</v>
-      </c>
-      <c r="B51" s="4">
-        <v>116.8</v>
-      </c>
-      <c r="C51" s="5">
-        <v>1265.0999999999999</v>
-      </c>
-      <c r="D51" s="4">
-        <v>114.1</v>
+        <v>43800</v>
+      </c>
+      <c r="B51" s="3">
+        <v>117</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1259.2</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="0"/>
+        <v>114.30000000000001</v>
       </c>
       <c r="E51" s="4">
-        <v>1225.9000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1223.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>43921</v>
-      </c>
-      <c r="B52" s="4">
-        <v>117.6</v>
-      </c>
-      <c r="C52" s="5">
-        <v>1276</v>
-      </c>
-      <c r="D52" s="4">
-        <v>114.8</v>
+        <v>43891</v>
+      </c>
+      <c r="B52" s="3">
+        <v>117.80000000000001</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1269</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" si="0"/>
+        <v>114.9</v>
       </c>
       <c r="E52" s="4">
-        <v>1234.7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1231.6000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>44012</v>
-      </c>
-      <c r="B53" s="4">
-        <v>118.3</v>
-      </c>
-      <c r="C53" s="5">
-        <v>1287.0999999999999</v>
-      </c>
-      <c r="D53" s="4">
-        <v>115.4</v>
+        <v>43983</v>
+      </c>
+      <c r="B53" s="3">
+        <v>118.5</v>
+      </c>
+      <c r="C53" s="4">
+        <v>1278.9000000000001</v>
+      </c>
+      <c r="D53" s="5">
+        <f t="shared" si="0"/>
+        <v>115.60000000000001</v>
       </c>
       <c r="E53" s="4">
-        <v>1243.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1239.8000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>44104</v>
-      </c>
-      <c r="B54" s="4">
-        <v>119</v>
-      </c>
-      <c r="C54" s="5">
-        <v>1298.8</v>
-      </c>
-      <c r="D54" s="4">
-        <v>116.1</v>
+        <v>44075</v>
+      </c>
+      <c r="B54" s="3">
+        <v>119.2</v>
+      </c>
+      <c r="C54" s="4">
+        <v>1290.7</v>
+      </c>
+      <c r="D54" s="5">
+        <f t="shared" si="0"/>
+        <v>116.30000000000001</v>
       </c>
       <c r="E54" s="4">
-        <v>1254.3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1249.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>44196</v>
-      </c>
-      <c r="B55" s="4">
-        <v>119.8</v>
-      </c>
-      <c r="C55" s="5">
-        <v>1310.7</v>
-      </c>
-      <c r="D55" s="4">
-        <v>116.8</v>
+        <v>44166</v>
+      </c>
+      <c r="B55" s="3">
+        <v>120</v>
+      </c>
+      <c r="C55" s="4">
+        <v>1302.7</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="0"/>
+        <v>117</v>
       </c>
       <c r="E55" s="4">
-        <v>1265.0999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1259.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>44286</v>
-      </c>
-      <c r="B56" s="4">
-        <v>120.5</v>
-      </c>
-      <c r="C56" s="5">
-        <v>1322.6</v>
-      </c>
-      <c r="D56" s="4">
-        <v>117.6</v>
+        <v>44256</v>
+      </c>
+      <c r="B56" s="3">
+        <v>120.7</v>
+      </c>
+      <c r="C56" s="4">
+        <v>1314.7</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="0"/>
+        <v>117.80000000000001</v>
       </c>
       <c r="E56" s="4">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>44377</v>
-      </c>
-      <c r="B57" s="4">
-        <v>121.2</v>
-      </c>
-      <c r="C57" s="5">
-        <v>1334.7</v>
-      </c>
-      <c r="D57" s="4">
-        <v>118.3</v>
+        <v>44348</v>
+      </c>
+      <c r="B57" s="3">
+        <v>121.5</v>
+      </c>
+      <c r="C57" s="4">
+        <v>1326.9</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="0"/>
+        <v>118.5</v>
       </c>
       <c r="E57" s="4">
-        <v>1287.0999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
+        <f t="shared" si="1"/>
+        <v>1278.9000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B58" s="3">
+        <v>122.2</v>
+      </c>
+      <c r="C58" s="4">
+        <v>1338.9</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="0"/>
+        <v>119.2</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="1"/>
+        <v>1290.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B59" s="3">
+        <v>123</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1351.1000000000001</v>
+      </c>
+      <c r="D59" s="5">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" si="1"/>
+        <v>1302.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B60" s="3">
+        <v>123.7</v>
+      </c>
+      <c r="C60" s="4">
+        <v>1363.3000000000002</v>
+      </c>
+      <c r="D60" s="5">
+        <f t="shared" si="0"/>
+        <v>120.7</v>
+      </c>
+      <c r="E60" s="4">
+        <f t="shared" si="1"/>
+        <v>1314.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B61" s="3">
+        <v>124.5</v>
+      </c>
+      <c r="C61" s="4">
+        <v>1375.7</v>
+      </c>
+      <c r="D61" s="5">
+        <f t="shared" si="0"/>
+        <v>121.5</v>
+      </c>
+      <c r="E61" s="4">
+        <f t="shared" si="1"/>
+        <v>1326.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Basefile Code/Uprating Data/Income Uprating Data.xlsx
+++ b/Basefile Code/Uprating Data/Income Uprating Data.xlsx
@@ -1,15 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E231C0D-B4A9-4E9A-BBD5-40C38A4BDA54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="6450" windowWidth="28830" windowHeight="6390" tabRatio="767"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="767" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quarterly" sheetId="16" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="27">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -527,7 +538,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -544,156 +555,159 @@
     <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="148">
-    <cellStyle name="# 0dp" xfId="89"/>
-    <cellStyle name="# 2dp" xfId="93"/>
-    <cellStyle name="$ 0dp" xfId="88"/>
-    <cellStyle name="$ 2dp" xfId="50"/>
-    <cellStyle name="$ 3dp" xfId="90"/>
-    <cellStyle name="% 0dp" xfId="91"/>
-    <cellStyle name="% 2dp" xfId="92"/>
-    <cellStyle name="Bgrd - Dark" xfId="97"/>
-    <cellStyle name="Bgrd - Light" xfId="98"/>
-    <cellStyle name="Comma 10" xfId="11"/>
-    <cellStyle name="Comma 2" xfId="12"/>
-    <cellStyle name="Comma 2 2" xfId="136"/>
-    <cellStyle name="Comma 2 3" xfId="99"/>
-    <cellStyle name="Comma 3" xfId="13"/>
-    <cellStyle name="Comma 4" xfId="14"/>
-    <cellStyle name="Comma 5" xfId="15"/>
-    <cellStyle name="Comma 6" xfId="61"/>
-    <cellStyle name="Comma 6 2" xfId="69"/>
-    <cellStyle name="Comma 6 3" xfId="143"/>
-    <cellStyle name="Comma 6 4" xfId="140"/>
-    <cellStyle name="Comma 7" xfId="65"/>
-    <cellStyle name="Comma 7 2" xfId="73"/>
-    <cellStyle name="Comma 8" xfId="77"/>
-    <cellStyle name="Comma 8 2" xfId="81"/>
-    <cellStyle name="Currency 2" xfId="8"/>
-    <cellStyle name="Currency 2 2" xfId="134"/>
-    <cellStyle name="Currency 2 3" xfId="100"/>
-    <cellStyle name="Currency 3" xfId="16"/>
-    <cellStyle name="Currency 4" xfId="17"/>
-    <cellStyle name="Currency 5" xfId="18"/>
-    <cellStyle name="Currency 6" xfId="62"/>
-    <cellStyle name="Currency 6 2" xfId="70"/>
-    <cellStyle name="Currency 6 3" xfId="144"/>
-    <cellStyle name="Currency 6 4" xfId="139"/>
-    <cellStyle name="Currency 7" xfId="66"/>
-    <cellStyle name="Currency 7 2" xfId="74"/>
-    <cellStyle name="Currency 8" xfId="78"/>
-    <cellStyle name="Currency 8 2" xfId="82"/>
-    <cellStyle name="Date - Table" xfId="94"/>
-    <cellStyle name="Date - Title" xfId="95"/>
-    <cellStyle name="Euro" xfId="52"/>
-    <cellStyle name="Euro 2" xfId="53"/>
-    <cellStyle name="Forecast" xfId="54"/>
-    <cellStyle name="Good 2" xfId="101"/>
-    <cellStyle name="Hyperlink 2" xfId="6"/>
-    <cellStyle name="Hyperlink 3" xfId="19"/>
-    <cellStyle name="Hyperlink 4" xfId="20"/>
-    <cellStyle name="Hyperlink 5" xfId="133"/>
-    <cellStyle name="Hyperlink 6" xfId="141"/>
-    <cellStyle name="Input # - 0 Decimals" xfId="102"/>
-    <cellStyle name="Input # - 1 Decimals" xfId="103"/>
-    <cellStyle name="Input # - 2 Decimals" xfId="104"/>
-    <cellStyle name="Input # - 3 Decimals" xfId="105"/>
-    <cellStyle name="Input # - Dates" xfId="106"/>
-    <cellStyle name="Input # - General" xfId="107"/>
-    <cellStyle name="Input $ - 0 DP" xfId="108"/>
-    <cellStyle name="Input $ - 2 DP" xfId="109"/>
-    <cellStyle name="Input $ - 3 DP" xfId="110"/>
-    <cellStyle name="Input % - 2 DP" xfId="111"/>
-    <cellStyle name="Input Text - Bold" xfId="112"/>
-    <cellStyle name="Input Text - Header" xfId="113"/>
-    <cellStyle name="Input Text - Plain" xfId="114"/>
-    <cellStyle name="Linked" xfId="55"/>
-    <cellStyle name="Microsoft Excel found an error in the formula you entered. Do you want to accept the correction proposed below?_x000a__x000a_|_x000a__x000a_• To accept the correction, click Yes._x000a_• To close this message and correct the formula yourself, click No." xfId="21"/>
+    <cellStyle name="# 0dp" xfId="89" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="# 2dp" xfId="93" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="$ 0dp" xfId="88" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="$ 2dp" xfId="50" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="$ 3dp" xfId="90" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="% 0dp" xfId="91" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="% 2dp" xfId="92" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Bgrd - Dark" xfId="97" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Bgrd - Light" xfId="98" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Comma 10" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Comma 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Comma 2 2" xfId="136" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Comma 2 3" xfId="99" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Comma 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Comma 4" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Comma 5" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Comma 6" xfId="61" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Comma 6 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Comma 6 3" xfId="143" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Comma 6 4" xfId="140" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Comma 7" xfId="65" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Comma 7 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Comma 8" xfId="77" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Comma 8 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Currency 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Currency 2 2" xfId="134" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Currency 2 3" xfId="100" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Currency 3" xfId="16" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Currency 4" xfId="17" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Currency 5" xfId="18" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Currency 6" xfId="62" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Currency 6 2" xfId="70" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Currency 6 3" xfId="144" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Currency 6 4" xfId="139" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Currency 7" xfId="66" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Currency 7 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Currency 8" xfId="78" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Currency 8 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Date - Table" xfId="94" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Date - Title" xfId="95" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Euro" xfId="52" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Euro 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Forecast" xfId="54" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Good 2" xfId="101" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Hyperlink 3" xfId="19" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Hyperlink 4" xfId="20" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Hyperlink 5" xfId="133" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Hyperlink 6" xfId="141" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Input # - 0 Decimals" xfId="102" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Input # - 1 Decimals" xfId="103" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Input # - 2 Decimals" xfId="104" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Input # - 3 Decimals" xfId="105" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Input # - Dates" xfId="106" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Input # - General" xfId="107" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Input $ - 0 DP" xfId="108" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Input $ - 2 DP" xfId="109" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Input $ - 3 DP" xfId="110" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Input % - 2 DP" xfId="111" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Input Text - Bold" xfId="112" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Input Text - Header" xfId="113" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Input Text - Plain" xfId="114" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Linked" xfId="55" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Microsoft Excel found an error in the formula you entered. Do you want to accept the correction proposed below?_x000a__x000a_|_x000a__x000a_• To accept the correction, click Yes._x000a_• To close this message and correct the formula yourself, click No." xfId="21" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="22"/>
-    <cellStyle name="Normal 11" xfId="23"/>
-    <cellStyle name="Normal 12" xfId="24"/>
-    <cellStyle name="Normal 13" xfId="25"/>
-    <cellStyle name="Normal 14" xfId="26"/>
-    <cellStyle name="Normal 15" xfId="27"/>
-    <cellStyle name="Normal 16" xfId="28"/>
-    <cellStyle name="Normal 17" xfId="29"/>
-    <cellStyle name="Normal 18" xfId="30"/>
-    <cellStyle name="Normal 19" xfId="60"/>
-    <cellStyle name="Normal 19 2" xfId="68"/>
-    <cellStyle name="Normal 19 3" xfId="142"/>
-    <cellStyle name="Normal 19 4" xfId="131"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="3"/>
-    <cellStyle name="Normal 2 2 2" xfId="84"/>
-    <cellStyle name="Normal 2 2 3" xfId="32"/>
-    <cellStyle name="Normal 2 3" xfId="137"/>
-    <cellStyle name="Normal 2 4" xfId="96"/>
-    <cellStyle name="Normal 2 5" xfId="31"/>
-    <cellStyle name="Normal 20" xfId="64"/>
-    <cellStyle name="Normal 20 2" xfId="72"/>
-    <cellStyle name="Normal 20 3" xfId="146"/>
-    <cellStyle name="Normal 20 4" xfId="87"/>
-    <cellStyle name="Normal 21" xfId="76"/>
-    <cellStyle name="Normal 21 2" xfId="80"/>
-    <cellStyle name="Normal 25" xfId="33"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 3 2" xfId="34"/>
-    <cellStyle name="Normal 3 3" xfId="9"/>
-    <cellStyle name="Normal 4" xfId="1"/>
-    <cellStyle name="Normal 4 2" xfId="36"/>
-    <cellStyle name="Normal 4 2 2" xfId="86"/>
-    <cellStyle name="Normal 4 3" xfId="51"/>
-    <cellStyle name="Normal 4 4" xfId="35"/>
-    <cellStyle name="Normal 5" xfId="5"/>
-    <cellStyle name="Normal 5 2" xfId="37"/>
-    <cellStyle name="Normal 5 3" xfId="85"/>
-    <cellStyle name="Normal 5 4" xfId="7"/>
-    <cellStyle name="Normal 6" xfId="38"/>
-    <cellStyle name="Normal 7" xfId="39"/>
-    <cellStyle name="Normal 8" xfId="40"/>
-    <cellStyle name="Normal 9" xfId="41"/>
-    <cellStyle name="Notes" xfId="56"/>
-    <cellStyle name="Percent 2" xfId="10"/>
-    <cellStyle name="Percent 2 2" xfId="135"/>
-    <cellStyle name="Percent 3" xfId="42"/>
-    <cellStyle name="Percent 4" xfId="43"/>
-    <cellStyle name="Percent 5" xfId="44"/>
-    <cellStyle name="Percent 6" xfId="63"/>
-    <cellStyle name="Percent 6 2" xfId="71"/>
-    <cellStyle name="Percent 6 3" xfId="145"/>
-    <cellStyle name="Percent 6 4" xfId="132"/>
-    <cellStyle name="Percent 7" xfId="67"/>
-    <cellStyle name="Percent 7 2" xfId="75"/>
-    <cellStyle name="Percent 7 3" xfId="147"/>
-    <cellStyle name="Percent 7 4" xfId="138"/>
-    <cellStyle name="Percent 8" xfId="79"/>
-    <cellStyle name="Percent 8 2" xfId="83"/>
-    <cellStyle name="Style 1" xfId="45"/>
-    <cellStyle name="Style 1 2" xfId="46"/>
-    <cellStyle name="Style 1 3" xfId="47"/>
-    <cellStyle name="Style 1 4" xfId="48"/>
-    <cellStyle name="Style 1 5" xfId="49"/>
-    <cellStyle name="Table # - 0 Decimals" xfId="115"/>
-    <cellStyle name="Table # - 1 Decimals" xfId="116"/>
-    <cellStyle name="Table # - 2 Decimals" xfId="117"/>
-    <cellStyle name="Table # - 3 Decimals" xfId="118"/>
-    <cellStyle name="Table # - Dates" xfId="119"/>
-    <cellStyle name="Table # - Dates MY" xfId="120"/>
-    <cellStyle name="TABLE $ - 0 DP" xfId="121"/>
-    <cellStyle name="TABLE $ - 2 DP" xfId="122"/>
-    <cellStyle name="TABLE $ - 3 DP" xfId="123"/>
-    <cellStyle name="TABLE % - 2 DP" xfId="124"/>
-    <cellStyle name="Table Body - Labels" xfId="129"/>
-    <cellStyle name="Table Body - Periods" xfId="130"/>
-    <cellStyle name="Table Body - Plain" xfId="125"/>
-    <cellStyle name="Table Body - Plain (no align)" xfId="128"/>
-    <cellStyle name="Table Footnotes" xfId="57"/>
-    <cellStyle name="Table Header - Bold" xfId="126"/>
-    <cellStyle name="Table Header - Plain" xfId="127"/>
-    <cellStyle name="一般_t1" xfId="58"/>
-    <cellStyle name="標準_3月表英語版o.jp" xfId="59"/>
+    <cellStyle name="Normal 10" xfId="22" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Normal 11" xfId="23" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Normal 12" xfId="24" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Normal 13" xfId="25" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Normal 14" xfId="26" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Normal 15" xfId="27" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Normal 16" xfId="28" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Normal 17" xfId="29" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Normal 18" xfId="30" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Normal 19" xfId="60" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 19 2" xfId="68" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 19 3" xfId="142" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 19 4" xfId="131" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 2 3" xfId="137" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 2 4" xfId="96" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 2 5" xfId="31" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 20" xfId="64" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 20 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 20 3" xfId="146" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 20 4" xfId="87" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 21" xfId="76" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 21 2" xfId="80" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 25" xfId="33" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 3 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 3 3" xfId="9" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 3" xfId="51" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 4" xfId="35" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 5 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 5 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 6" xfId="38" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 7" xfId="39" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 8" xfId="40" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 9" xfId="41" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Notes" xfId="56" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Percent 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Percent 2 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Percent 3" xfId="42" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Percent 4" xfId="43" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Percent 5" xfId="44" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Percent 6" xfId="63" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Percent 6 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Percent 6 3" xfId="145" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Percent 6 4" xfId="132" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Percent 7" xfId="67" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Percent 7 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Percent 7 3" xfId="147" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Percent 7 4" xfId="138" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Percent 8" xfId="79" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Percent 8 2" xfId="83" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Style 1" xfId="45" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Style 1 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Style 1 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Style 1 4" xfId="48" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Style 1 5" xfId="49" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Table # - 0 Decimals" xfId="115" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Table # - 1 Decimals" xfId="116" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Table # - 2 Decimals" xfId="117" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Table # - 3 Decimals" xfId="118" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Table # - Dates" xfId="119" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Table # - Dates MY" xfId="120" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="TABLE $ - 0 DP" xfId="121" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="TABLE $ - 2 DP" xfId="122" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="TABLE $ - 3 DP" xfId="123" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="TABLE % - 2 DP" xfId="124" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Table Body - Labels" xfId="129" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Table Body - Periods" xfId="130" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Table Body - Plain" xfId="125" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Table Body - Plain (no align)" xfId="128" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Table Footnotes" xfId="57" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Table Header - Bold" xfId="126" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Table Header - Plain" xfId="127" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="一般_t1" xfId="58" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="標準_3月表英語版o.jp" xfId="59" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -866,7 +880,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="My Table 2" pivot="0" count="9">
+    <tableStyle name="My Table 2" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="17"/>
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
@@ -877,7 +891,7 @@
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
       <tableStyleElement type="secondColumnStripe" dxfId="9"/>
     </tableStyle>
-    <tableStyle name="My Table" pivot="0" count="9">
+    <tableStyle name="My Table" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="8"/>
       <tableStyleElement type="headerRow" dxfId="7"/>
       <tableStyleElement type="totalRow" dxfId="6"/>
@@ -892,6 +906,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -940,7 +957,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -973,9 +990,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1008,6 +1042,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1183,21 +1234,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="3" customWidth="1"/>
-    <col min="2" max="5" width="23.42578125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="22.54296875" style="3" customWidth="1"/>
+    <col min="2" max="5" width="23.453125" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1214,7 +1268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>39326</v>
       </c>
@@ -1231,7 +1285,7 @@
         <v>837.7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>39417</v>
       </c>
@@ -1248,7 +1302,7 @@
         <v>843.7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>39508</v>
       </c>
@@ -1265,7 +1319,7 @@
         <v>863.8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>39600</v>
       </c>
@@ -1282,7 +1336,7 @@
         <v>863.4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>39692</v>
       </c>
@@ -1293,15 +1347,13 @@
         <v>901.7</v>
       </c>
       <c r="D6" s="5">
-        <f>B2</f>
         <v>88.3</v>
       </c>
       <c r="E6" s="4">
-        <f>C2</f>
         <v>875.8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>39783</v>
       </c>
@@ -1312,15 +1364,13 @@
         <v>909.5</v>
       </c>
       <c r="D7" s="5">
-        <f t="shared" ref="D7:D61" si="0">B3</f>
         <v>89.1</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" ref="E7:E61" si="1">C3</f>
         <v>875.8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>39873</v>
       </c>
@@ -1331,15 +1381,13 @@
         <v>921.5</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" si="0"/>
         <v>90.3</v>
       </c>
       <c r="E8" s="4">
-        <f>C4</f>
         <v>891.2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>39965</v>
       </c>
@@ -1350,15 +1398,13 @@
         <v>918.8</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="0"/>
         <v>91.6</v>
       </c>
       <c r="E9" s="4">
-        <f t="shared" si="1"/>
         <v>888.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>40057</v>
       </c>
@@ -1369,15 +1415,13 @@
         <v>940</v>
       </c>
       <c r="D10" s="5">
-        <f t="shared" si="0"/>
         <v>92.7</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="1"/>
         <v>901.7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>40148</v>
       </c>
@@ -1388,15 +1432,13 @@
         <v>955</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" si="0"/>
         <v>92.4</v>
       </c>
       <c r="E11" s="4">
-        <f>C7</f>
         <v>909.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>40238</v>
       </c>
@@ -1407,15 +1449,13 @@
         <v>973.8</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="1"/>
         <v>921.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>40330</v>
       </c>
@@ -1426,15 +1466,13 @@
         <v>977.1</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" si="0"/>
         <v>92.9</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="1"/>
         <v>918.8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>40422</v>
       </c>
@@ -1445,15 +1483,13 @@
         <v>978.4</v>
       </c>
       <c r="D14" s="5">
-        <f t="shared" si="0"/>
         <v>93.8</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="1"/>
         <v>940</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>40513</v>
       </c>
@@ -1464,15 +1500,13 @@
         <v>996.6</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="0"/>
         <v>94.3</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="1"/>
         <v>955</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>40603</v>
       </c>
@@ -1483,15 +1517,13 @@
         <v>1011.8</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" si="0"/>
         <v>95.2</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="1"/>
         <v>973.8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>40695</v>
       </c>
@@ -1502,15 +1534,13 @@
         <v>1015.2</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="0"/>
         <v>95.8</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="1"/>
         <v>977.1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>40787</v>
       </c>
@@ -1521,15 +1551,13 @@
         <v>1024.2</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="0"/>
         <v>96.5</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="1"/>
         <v>978.4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>40878</v>
       </c>
@@ -1540,15 +1568,13 @@
         <v>1033.7</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="0"/>
         <v>96.9</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="1"/>
         <v>996.6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>40969</v>
       </c>
@@ -1559,15 +1585,13 @@
         <v>1056.2</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="0"/>
         <v>98.3</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="1"/>
         <v>1011.8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>41061</v>
       </c>
@@ -1578,15 +1602,13 @@
         <v>1053.2</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="0"/>
         <v>99.2</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="1"/>
         <v>1015.2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>41153</v>
       </c>
@@ -1597,15 +1619,13 @@
         <v>1067.25</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="0"/>
         <v>99.8</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="1"/>
         <v>1024.2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>41244</v>
       </c>
@@ -1616,15 +1636,13 @@
         <v>1081.3</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="0"/>
         <v>99.8</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="1"/>
         <v>1033.7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>41334</v>
       </c>
@@ -1635,15 +1653,13 @@
         <v>1093.1500000000001</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="0"/>
         <v>99.9</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="1"/>
         <v>1056.2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>41426</v>
       </c>
@@ -1654,15 +1670,13 @@
         <v>1105</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="0"/>
         <v>100.4</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="1"/>
         <v>1053.2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>41518</v>
       </c>
@@ -1673,15 +1687,13 @@
         <v>1109.5999999999999</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="0"/>
         <v>101.8</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="1"/>
         <v>1067.25</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>41609</v>
       </c>
@@ -1692,15 +1704,13 @@
         <v>1114.2</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="1"/>
         <v>1081.3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>41699</v>
       </c>
@@ -1711,15 +1721,13 @@
         <v>1118.5999999999999</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="0"/>
         <v>102.4</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="1"/>
         <v>1093.1500000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>41791</v>
       </c>
@@ -1730,15 +1738,13 @@
         <v>1123</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="0"/>
         <v>102.8</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="1"/>
         <v>1105</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>41883</v>
       </c>
@@ -1749,15 +1755,13 @@
         <v>1125.8499999999999</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="1"/>
         <v>1109.5999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>41974</v>
       </c>
@@ -1768,15 +1772,13 @@
         <v>1128.7</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="0"/>
         <v>104.8</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="1"/>
         <v>1114.2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>42064</v>
       </c>
@@ -1787,15 +1789,13 @@
         <v>1132.8000000000002</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="0"/>
         <v>105.4</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="1"/>
         <v>1118.5999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>42156</v>
       </c>
@@ -1806,15 +1806,13 @@
         <v>1136.9000000000001</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="0"/>
         <v>105.9</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="1"/>
         <v>1123</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>42248</v>
       </c>
@@ -1825,15 +1823,13 @@
         <v>1141.3000000000002</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="0"/>
         <v>106.4</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="1"/>
         <v>1125.8499999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>42339</v>
       </c>
@@ -1844,15 +1840,13 @@
         <v>1145.7</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="0"/>
         <v>106.6</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="1"/>
         <v>1128.7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>42430</v>
       </c>
@@ -1863,15 +1857,13 @@
         <v>1153.3000000000002</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="0"/>
         <v>106.8</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="1"/>
         <v>1132.8000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>42522</v>
       </c>
@@ -1882,15 +1874,13 @@
         <v>1160.9000000000001</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="0"/>
         <v>107.5</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" si="1"/>
         <v>1136.9000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>42614</v>
       </c>
@@ -1901,15 +1891,13 @@
         <v>1162.2</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="1"/>
         <v>1141.3000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>42705</v>
       </c>
@@ -1920,15 +1908,13 @@
         <v>1163.5</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="0"/>
         <v>108.4</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="1"/>
         <v>1145.7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>42795</v>
       </c>
@@ -1939,15 +1925,13 @@
         <v>1171.25</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="0"/>
         <v>108.2</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" si="1"/>
         <v>1153.3000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>42887</v>
       </c>
@@ -1958,15 +1942,13 @@
         <v>1179</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="0"/>
         <v>108.6</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="1"/>
         <v>1160.9000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>42979</v>
       </c>
@@ -1977,15 +1959,13 @@
         <v>1185.25</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="0"/>
         <v>109.4</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" si="1"/>
         <v>1162.2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>43070</v>
       </c>
@@ -1996,15 +1976,13 @@
         <v>1191.5</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" si="1"/>
         <v>1163.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43160</v>
       </c>
@@ -2015,15 +1993,13 @@
         <v>1199.45</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="0"/>
         <v>110.5</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="1"/>
         <v>1171.25</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43252</v>
       </c>
@@ -2034,352 +2010,490 @@
         <v>1207.4000000000001</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="0"/>
         <v>110.7</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" si="1"/>
         <v>1179</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>43344</v>
       </c>
       <c r="B46" s="3">
-        <v>113.60000000000001</v>
+        <v>113.5</v>
       </c>
       <c r="C46" s="4">
-        <v>1215.4000000000001</v>
+        <v>1216.3499999999999</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="0"/>
         <v>111.4</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" si="1"/>
         <v>1185.25</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>43435</v>
       </c>
       <c r="B47" s="3">
-        <v>114.30000000000001</v>
+        <v>114.1</v>
       </c>
       <c r="C47" s="4">
-        <v>1223.5</v>
+        <v>1225.3</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="0"/>
         <v>112.1</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="1"/>
         <v>1191.5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43525</v>
       </c>
       <c r="B48" s="3">
-        <v>114.9</v>
+        <v>114.1</v>
       </c>
       <c r="C48" s="4">
-        <v>1231.6000000000001</v>
+        <v>1231.5999999999999</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" si="0"/>
         <v>112.6</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" si="1"/>
         <v>1199.45</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>43617</v>
       </c>
       <c r="B49" s="3">
-        <v>115.60000000000001</v>
+        <v>114.8</v>
       </c>
       <c r="C49" s="4">
-        <v>1239.8000000000002</v>
+        <v>1237.9000000000001</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="0"/>
         <v>113</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" si="1"/>
         <v>1207.4000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>43709</v>
       </c>
       <c r="B50" s="3">
-        <v>116.30000000000001</v>
+        <v>115.4</v>
       </c>
       <c r="C50" s="4">
-        <v>1249.5</v>
+        <v>1247.45</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="0"/>
-        <v>113.60000000000001</v>
+        <v>113.5</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" si="1"/>
-        <v>1215.4000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1216.3499999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>43800</v>
       </c>
       <c r="B51" s="3">
-        <v>117</v>
+        <v>116.2</v>
       </c>
       <c r="C51" s="4">
-        <v>1259.2</v>
+        <v>1257</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" si="0"/>
-        <v>114.30000000000001</v>
+        <v>114.1</v>
       </c>
       <c r="E51" s="4">
-        <f t="shared" si="1"/>
-        <v>1223.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1225.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>43891</v>
       </c>
       <c r="B52" s="3">
-        <v>117.80000000000001</v>
+        <v>116.6</v>
       </c>
       <c r="C52" s="4">
-        <v>1269</v>
+        <v>1280.8499999999999</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" si="0"/>
-        <v>114.9</v>
+        <v>114.1</v>
       </c>
       <c r="E52" s="4">
-        <f t="shared" si="1"/>
-        <v>1231.6000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1231.5999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>43983</v>
       </c>
       <c r="B53" s="3">
-        <v>118.5</v>
+        <v>114.4</v>
       </c>
       <c r="C53" s="4">
-        <v>1278.9000000000001</v>
+        <v>1304.7</v>
       </c>
       <c r="D53" s="5">
-        <f t="shared" si="0"/>
-        <v>115.60000000000001</v>
+        <v>114.8</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" si="1"/>
-        <v>1239.8000000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1237.9000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>44075</v>
       </c>
       <c r="B54" s="3">
-        <v>119.2</v>
+        <v>116.2</v>
       </c>
       <c r="C54" s="4">
-        <v>1290.7</v>
+        <v>1292.5</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" si="0"/>
-        <v>116.30000000000001</v>
+        <v>115.4</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="1"/>
-        <v>1249.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1247.45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>44166</v>
       </c>
       <c r="B55" s="3">
-        <v>120</v>
+        <v>117.2</v>
       </c>
       <c r="C55" s="4">
-        <v>1302.7</v>
+        <v>1280.3</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" si="0"/>
-        <v>117</v>
+        <v>116.2</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" si="1"/>
-        <v>1259.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>44256</v>
       </c>
       <c r="B56" s="3">
-        <v>120.7</v>
+        <v>117.9</v>
       </c>
       <c r="C56" s="4">
-        <v>1314.7</v>
+        <v>1300.6600000000001</v>
       </c>
       <c r="D56" s="5">
-        <f t="shared" si="0"/>
-        <v>117.80000000000001</v>
+        <v>116.6</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="1"/>
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1280.8499999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>44348</v>
       </c>
       <c r="B57" s="3">
-        <v>121.5</v>
+        <v>118.4</v>
       </c>
       <c r="C57" s="4">
-        <v>1326.9</v>
+        <v>1321.01</v>
       </c>
       <c r="D57" s="5">
-        <f t="shared" si="0"/>
-        <v>118.5</v>
+        <v>114.4</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" si="1"/>
-        <v>1278.9000000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1304.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>44440</v>
       </c>
       <c r="B58" s="3">
-        <v>122.2</v>
+        <v>118.9</v>
       </c>
       <c r="C58" s="4">
-        <v>1338.9</v>
+        <v>1325.9650000000001</v>
       </c>
       <c r="D58" s="5">
-        <f t="shared" si="0"/>
-        <v>119.2</v>
+        <v>116.2</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="1"/>
-        <v>1290.7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1292.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>44531</v>
       </c>
       <c r="B59" s="3">
-        <v>123</v>
+        <v>119.4</v>
       </c>
       <c r="C59" s="4">
-        <v>1351.1000000000001</v>
+        <v>1330.92</v>
       </c>
       <c r="D59" s="5">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <v>117.2</v>
       </c>
       <c r="E59" s="4">
-        <f t="shared" si="1"/>
-        <v>1302.7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1280.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>44621</v>
       </c>
       <c r="B60" s="3">
-        <v>123.7</v>
+        <v>119.9</v>
       </c>
       <c r="C60" s="4">
-        <v>1363.3000000000002</v>
+        <v>1335.91</v>
       </c>
       <c r="D60" s="5">
-        <f t="shared" si="0"/>
-        <v>120.7</v>
+        <v>117.9</v>
       </c>
       <c r="E60" s="4">
-        <f t="shared" si="1"/>
-        <v>1314.7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1300.6600000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>44713</v>
       </c>
       <c r="B61" s="3">
-        <v>124.5</v>
+        <v>120.4</v>
       </c>
       <c r="C61" s="4">
-        <v>1375.7</v>
-      </c>
-      <c r="D61" s="5">
-        <f t="shared" si="0"/>
-        <v>121.5</v>
+        <v>1340.9</v>
+      </c>
+      <c r="D61" s="3">
+        <v>118.4</v>
       </c>
       <c r="E61" s="4">
-        <f t="shared" si="1"/>
-        <v>1326.9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
+        <v>1321.01</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B62" s="3">
+        <v>121.1</v>
+      </c>
+      <c r="C62" s="4">
+        <v>1348.4450000000002</v>
+      </c>
+      <c r="D62" s="3">
+        <v>118.9</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1325.9650000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B63" s="3">
+        <v>121.8</v>
+      </c>
+      <c r="C63" s="4">
+        <v>1355.99</v>
+      </c>
+      <c r="D63" s="3">
+        <v>119.4</v>
+      </c>
+      <c r="E63" s="4">
+        <v>1330.92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B64" s="3">
+        <v>122.5</v>
+      </c>
+      <c r="C64" s="4">
+        <v>1363.615</v>
+      </c>
+      <c r="D64" s="3">
+        <v>119.9</v>
+      </c>
+      <c r="E64" s="4">
+        <v>1335.91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B65" s="3">
+        <v>123.2</v>
+      </c>
+      <c r="C65" s="4">
+        <v>1371.24</v>
+      </c>
+      <c r="D65" s="3">
+        <v>120.4</v>
+      </c>
+      <c r="E65" s="4">
+        <v>1340.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B66" s="3">
+        <v>124</v>
+      </c>
+      <c r="C66" s="4">
+        <v>1379.81</v>
+      </c>
+      <c r="D66" s="3">
+        <v>121.1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1348.4450000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="6">
+        <v>45261</v>
+      </c>
+      <c r="B67" s="3">
+        <v>124.8</v>
+      </c>
+      <c r="C67" s="4">
+        <v>1388.38</v>
+      </c>
+      <c r="D67" s="3">
+        <v>121.8</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1355.99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="6">
+        <v>45352</v>
+      </c>
+      <c r="B68" s="3">
+        <v>125.6</v>
+      </c>
+      <c r="C68" s="4">
+        <v>1397.0550000000001</v>
+      </c>
+      <c r="D68" s="3">
+        <v>122.5</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1363.615</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="6">
+        <v>45444</v>
+      </c>
+      <c r="B69" s="3">
+        <v>126.4</v>
+      </c>
+      <c r="C69" s="4">
+        <v>1405.73</v>
+      </c>
+      <c r="D69" s="3">
+        <v>123.2</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1371.24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B70" s="3">
+        <v>127.2</v>
+      </c>
+      <c r="C70" s="4">
+        <v>1415.395</v>
+      </c>
+      <c r="D70" s="3">
+        <v>124</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1379.81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="6">
+        <v>45627</v>
+      </c>
+      <c r="B71" s="3">
+        <v>128</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1425.06</v>
+      </c>
+      <c r="D71" s="3">
+        <v>124.8</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1388.38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="6">
+        <v>45717</v>
+      </c>
+      <c r="B72" s="3">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="C72" s="4">
+        <v>1434.855</v>
+      </c>
+      <c r="D72" s="3">
+        <v>125.6</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1397.0550000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="6">
+        <v>45809</v>
+      </c>
+      <c r="B73" s="3">
+        <v>129.6</v>
+      </c>
+      <c r="C73" s="4">
+        <v>1444.65</v>
+      </c>
+      <c r="D73" s="3">
+        <v>126.4</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1405.73</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>